--- a/databases/movieshowtimes.xlsx
+++ b/databases/movieshowtimes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Advitiya\Downloads\MBS-CS3365-main\MBS-CS3365-main\databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Advitiya\Downloads\MBS-CS3365-latest-advitiya\MBS-CS3365-latest-advitiya\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53DCF4B-988A-40A2-A81C-56F36DD559CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4033DE59-5E20-409E-A876-E5BC8E75B8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Showtimes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Movie Name</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>June 3</t>
   </si>
 </sst>
 </file>
@@ -84,14 +87,14 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{C95D7C2A-EAA0-4004-9F78-C6BF9D7E1EF1}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7DEA301A-A1CD-46DB-8188-3FAFB0508036}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -429,12 +432,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,15 +454,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>42125</v>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
